--- a/data/trans_dic/P36$fruta-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,79</t>
+          <t>4,78; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 11,02</t>
+          <t>7,29; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,19</t>
+          <t>6,56; 10,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,55</t>
+          <t>5,64; 8,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,75</t>
+          <t>8,38; 11,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 11,28</t>
+          <t>7,32; 11,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 7,76</t>
+          <t>5,66; 7,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,82</t>
+          <t>8,31; 10,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 10,16</t>
+          <t>7,41; 10,12</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,3</t>
+          <t>6,51; 9,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 13,78</t>
+          <t>10,95; 13,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 15,57</t>
+          <t>12,41; 15,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 13,84</t>
+          <t>10,57; 13,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 14,84</t>
+          <t>11,53; 14,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 15,92</t>
+          <t>12,64; 15,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 11,0</t>
+          <t>8,88; 10,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 13,77</t>
+          <t>11,55; 13,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,96; 15,21</t>
+          <t>12,97; 15,25</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 15,85</t>
+          <t>9,65; 15,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,26</t>
+          <t>14,12; 21,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 19,57</t>
+          <t>12,96; 19,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 19,49</t>
+          <t>12,25; 19,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 23,08</t>
+          <t>15,18; 22,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 20,83</t>
+          <t>14,24; 20,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,12</t>
+          <t>11,84; 16,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 20,85</t>
+          <t>15,2; 20,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 19,3</t>
+          <t>14,66; 19,42</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,12</t>
+          <t>7,17; 9,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 13,24</t>
+          <t>10,91; 13,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 14,25</t>
+          <t>11,8; 14,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 11,89</t>
+          <t>9,66; 11,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 13,74</t>
+          <t>11,55; 13,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 14,56</t>
+          <t>12,17; 14,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 10,12</t>
+          <t>8,72; 10,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 13,06</t>
+          <t>11,45; 13,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 13,93</t>
+          <t>12,35; 14,01</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, fruta o zumo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>63842</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>86935</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61269</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>92116</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>133215</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>90218</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>155958</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>220150</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>151487</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>49084; 79683</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70909; 108374</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49384; 78449</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74030; 113000</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>111885; 155402</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72732; 110824</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>132416; 184274</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>191939; 252176</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>129351; 176645</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>132454</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>240805</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>287985</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>193335</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>227367</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>282987</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>325789</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>468173</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>570972</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>110137; 157250</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>214691; 274428</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>257409; 319548</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>167542; 219969</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>202418; 257895</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>251140; 317015</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>291186; 359871</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>429018; 514987</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>526835; 619239</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68323</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>82815</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>88169</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>73837</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>84882</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>96292</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>142160</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>167697</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>184461</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53015; 86605</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67807; 102571</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>70903; 107268</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58356; 92592</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69460; 103350</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>78215; 114864</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>121455; 167738</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>142551; 193914</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>160711; 212816</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>264619</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>410555</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>437423</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>359288</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>445465</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>469497</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>623906</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>856020</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>906920</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>234573; 300452</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>372518; 451506</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>397952; 477383</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>326152; 398925</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>409789; 486565</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>429618; 510955</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>579619; 676510</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>796988; 914276</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>852752; 967373</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>